--- a/Code/Results/Cases/Case_4_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_167/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.4478223801579</v>
+        <v>15.20011764684948</v>
       </c>
       <c r="C2">
-        <v>6.108169162753062</v>
+        <v>5.549510265386702</v>
       </c>
       <c r="D2">
-        <v>9.031073855974684</v>
+        <v>13.59115401781157</v>
       </c>
       <c r="E2">
-        <v>8.221405556246008</v>
+        <v>13.88680011581545</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.134807486810426</v>
+        <v>3.7188001584187</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.502719165563</v>
+        <v>31.0040753684009</v>
       </c>
       <c r="J2">
-        <v>5.053668635923411</v>
+        <v>8.431817319517179</v>
       </c>
       <c r="K2">
-        <v>10.49202603386485</v>
+        <v>12.41729235547219</v>
       </c>
       <c r="L2">
-        <v>7.502628045816909</v>
+        <v>12.54101177934104</v>
       </c>
       <c r="M2">
-        <v>10.87023845032305</v>
+        <v>17.05710824708649</v>
       </c>
       <c r="N2">
-        <v>14.69623025540994</v>
+        <v>22.72436872851446</v>
       </c>
       <c r="O2">
-        <v>20.79088129058191</v>
+        <v>32.53314787328899</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.70041062914957</v>
+        <v>15.05679776130088</v>
       </c>
       <c r="C3">
-        <v>5.874223607780723</v>
+        <v>5.460530465355505</v>
       </c>
       <c r="D3">
-        <v>8.856364387141458</v>
+        <v>13.59330448255508</v>
       </c>
       <c r="E3">
-        <v>8.227025863309475</v>
+        <v>13.9114036168101</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.139766254040082</v>
+        <v>3.720720094090111</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.60595773762027</v>
+        <v>31.08948710429331</v>
       </c>
       <c r="J3">
-        <v>5.061438790521481</v>
+        <v>8.435105540830625</v>
       </c>
       <c r="K3">
-        <v>9.903289573205745</v>
+        <v>12.31728889375758</v>
       </c>
       <c r="L3">
-        <v>7.438014831170579</v>
+        <v>12.55427568381321</v>
       </c>
       <c r="M3">
-        <v>10.60049347472745</v>
+        <v>17.04602917981959</v>
       </c>
       <c r="N3">
-        <v>14.89849535710557</v>
+        <v>22.78537168138178</v>
       </c>
       <c r="O3">
-        <v>20.80431502579983</v>
+        <v>32.61261227130181</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.22304700851469</v>
+        <v>14.97094253569502</v>
       </c>
       <c r="C4">
-        <v>5.725461006096487</v>
+        <v>5.40432690750312</v>
       </c>
       <c r="D4">
-        <v>8.751993646930693</v>
+        <v>13.5968356271749</v>
       </c>
       <c r="E4">
-        <v>8.233405902744503</v>
+        <v>13.92792625868897</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.142911868714006</v>
+        <v>3.721962626316204</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.67988714294641</v>
+        <v>31.14633199124787</v>
       </c>
       <c r="J4">
-        <v>5.066452902690011</v>
+        <v>8.437246457370213</v>
       </c>
       <c r="K4">
-        <v>9.544118572686843</v>
+        <v>12.25763757101857</v>
       </c>
       <c r="L4">
-        <v>7.400978921291043</v>
+        <v>12.56387412749271</v>
       </c>
       <c r="M4">
-        <v>10.43557264563779</v>
+        <v>17.04149912648062</v>
       </c>
       <c r="N4">
-        <v>15.02565213849307</v>
+        <v>22.82460548094216</v>
       </c>
       <c r="O4">
-        <v>20.82512492134222</v>
+        <v>32.66649561385207</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.02407111581376</v>
+        <v>14.93653029067612</v>
       </c>
       <c r="C5">
-        <v>5.66359314957432</v>
+        <v>5.38104202536075</v>
       </c>
       <c r="D5">
-        <v>8.710233267071194</v>
+        <v>13.59883169017946</v>
       </c>
       <c r="E5">
-        <v>8.236730776623409</v>
+        <v>13.93501596980867</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.144219601353226</v>
+        <v>3.722485031669145</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.71258302651286</v>
+        <v>31.17060377681535</v>
       </c>
       <c r="J5">
-        <v>5.068557296577556</v>
+        <v>8.438149641115801</v>
       </c>
       <c r="K5">
-        <v>9.394576493742717</v>
+        <v>12.23379208598873</v>
       </c>
       <c r="L5">
-        <v>7.386551433958561</v>
+        <v>12.56815187669031</v>
       </c>
       <c r="M5">
-        <v>10.36863083232888</v>
+        <v>17.04022735863803</v>
       </c>
       <c r="N5">
-        <v>15.07823469208243</v>
+        <v>22.84104186825291</v>
       </c>
       <c r="O5">
-        <v>20.83666689695366</v>
+        <v>32.68973341852733</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.99076920728147</v>
+        <v>14.93085187307594</v>
       </c>
       <c r="C6">
-        <v>5.653246124225662</v>
+        <v>5.377152944352733</v>
       </c>
       <c r="D6">
-        <v>8.703346783927321</v>
+        <v>13.59919681258123</v>
       </c>
       <c r="E6">
-        <v>8.237326315107705</v>
+        <v>13.93621476435192</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.144438325891233</v>
+        <v>3.722572748326614</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.71816499270421</v>
+        <v>31.1747009555503</v>
       </c>
       <c r="J6">
-        <v>5.068910418861453</v>
+        <v>8.438301473275221</v>
       </c>
       <c r="K6">
-        <v>9.369558425182706</v>
+        <v>12.22986116383554</v>
       </c>
       <c r="L6">
-        <v>7.384195955628152</v>
+        <v>12.56888433428636</v>
       </c>
       <c r="M6">
-        <v>10.3575338034478</v>
+        <v>17.04005094452068</v>
       </c>
       <c r="N6">
-        <v>15.0870127540075</v>
+        <v>22.84379823111426</v>
       </c>
       <c r="O6">
-        <v>20.83876552932221</v>
+        <v>32.69366932582376</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.22038126859777</v>
+        <v>14.97047606819171</v>
       </c>
       <c r="C7">
-        <v>5.724631619805896</v>
+        <v>5.40401440618691</v>
       </c>
       <c r="D7">
-        <v>8.751427273519424</v>
+        <v>13.59686028971021</v>
       </c>
       <c r="E7">
-        <v>8.23344782317313</v>
+        <v>13.9280204284386</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.142929399869744</v>
+        <v>3.721969606551315</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.68031779449165</v>
+        <v>31.14665484647834</v>
       </c>
       <c r="J7">
-        <v>5.066481035933208</v>
+        <v>8.43725851343652</v>
       </c>
       <c r="K7">
-        <v>9.542114430882668</v>
+        <v>12.25731407893952</v>
       </c>
       <c r="L7">
-        <v>7.400781653100082</v>
+        <v>12.56393033479665</v>
       </c>
       <c r="M7">
-        <v>10.43466865491484</v>
+        <v>17.04147964624728</v>
       </c>
       <c r="N7">
-        <v>15.02635816190233</v>
+        <v>22.82482533100001</v>
       </c>
       <c r="O7">
-        <v>20.82526831123669</v>
+        <v>32.666803825434</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.19404785482868</v>
+        <v>15.15027754649878</v>
       </c>
       <c r="C8">
-        <v>6.028590031587227</v>
+        <v>5.519163561636234</v>
       </c>
       <c r="D8">
-        <v>8.970257308538706</v>
+        <v>13.5914374218917</v>
       </c>
       <c r="E8">
-        <v>8.222728517398179</v>
+        <v>13.89498983861921</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.13649662941944</v>
+        <v>3.719448964488588</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.53607822989992</v>
+        <v>31.03261186785434</v>
       </c>
       <c r="J8">
-        <v>5.05629726960781</v>
+        <v>8.432925839442277</v>
       </c>
       <c r="K8">
-        <v>10.27525048889974</v>
+        <v>12.3824614640812</v>
       </c>
       <c r="L8">
-        <v>7.47980356316704</v>
+        <v>12.54528369140397</v>
       </c>
       <c r="M8">
-        <v>10.77713609948505</v>
+        <v>17.05281827475467</v>
       </c>
       <c r="N8">
-        <v>14.76536783952415</v>
+        <v>22.74503434368988</v>
       </c>
       <c r="O8">
-        <v>20.79284770153652</v>
+        <v>32.55949010289918</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.95041268624419</v>
+        <v>15.51827872163138</v>
       </c>
       <c r="C9">
-        <v>6.582543561012273</v>
+        <v>5.731965249203537</v>
       </c>
       <c r="D9">
-        <v>9.420528957168624</v>
+        <v>13.59828569016984</v>
       </c>
       <c r="E9">
-        <v>8.225470423113105</v>
+        <v>13.84142840134471</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.124659221954363</v>
+        <v>3.715009038743737</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.3406617827991</v>
+        <v>30.84389154014965</v>
       </c>
       <c r="J9">
-        <v>5.038260015251541</v>
+        <v>8.425393306769394</v>
       </c>
       <c r="K9">
-        <v>11.84090556137687</v>
+        <v>12.64074509365187</v>
       </c>
       <c r="L9">
-        <v>7.655564317230007</v>
+        <v>12.52023031701288</v>
       </c>
       <c r="M9">
-        <v>11.45061736121778</v>
+        <v>17.09295318768033</v>
       </c>
       <c r="N9">
-        <v>14.27616582831757</v>
+        <v>22.60261115565569</v>
       </c>
       <c r="O9">
-        <v>20.83329050529393</v>
+        <v>32.38947053248998</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.14092703187939</v>
+        <v>15.79585588989691</v>
       </c>
       <c r="C10">
-        <v>6.962300358270103</v>
+        <v>5.879686373723009</v>
       </c>
       <c r="D10">
-        <v>9.761743307659101</v>
+        <v>13.6138857323613</v>
       </c>
       <c r="E10">
-        <v>8.242689204508444</v>
+        <v>13.808879267801</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.116401724779972</v>
+        <v>3.712050537971932</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.25584775137242</v>
+        <v>30.7265139328924</v>
       </c>
       <c r="J10">
-        <v>5.026192864004503</v>
+        <v>8.42044163329844</v>
       </c>
       <c r="K10">
-        <v>12.88667239611935</v>
+        <v>12.83693908008828</v>
       </c>
       <c r="L10">
-        <v>7.797166237082642</v>
+        <v>12.50880452407565</v>
       </c>
       <c r="M10">
-        <v>11.94198714439954</v>
+        <v>17.13316435406264</v>
       </c>
       <c r="N10">
-        <v>13.92916461123434</v>
+        <v>22.50645225603417</v>
       </c>
       <c r="O10">
-        <v>20.93238221662639</v>
+        <v>32.28922554491638</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.65995955261074</v>
+        <v>15.92322481009515</v>
       </c>
       <c r="C11">
-        <v>7.128929866056015</v>
+        <v>5.944880349557207</v>
       </c>
       <c r="D11">
-        <v>9.918722788463137</v>
+        <v>13.62325419728311</v>
       </c>
       <c r="E11">
-        <v>8.253978637451331</v>
+        <v>13.79554190542301</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.112732583583165</v>
+        <v>3.710769873314645</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.23126762110887</v>
+        <v>30.67773301989374</v>
       </c>
       <c r="J11">
-        <v>5.020962599013843</v>
+        <v>8.418314389595043</v>
       </c>
       <c r="K11">
-        <v>13.33776315302248</v>
+        <v>12.92728062937042</v>
       </c>
       <c r="L11">
-        <v>7.864236090814333</v>
+        <v>12.50511363892453</v>
       </c>
       <c r="M11">
-        <v>12.16391513610841</v>
+        <v>17.15374115617447</v>
       </c>
       <c r="N11">
-        <v>13.77368480043026</v>
+        <v>22.46453042794039</v>
       </c>
       <c r="O11">
-        <v>20.99380350598101</v>
+        <v>32.24898217819283</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.85321640186327</v>
+        <v>15.97157420888083</v>
       </c>
       <c r="C12">
-        <v>7.191135612048716</v>
+        <v>5.969268675728989</v>
       </c>
       <c r="D12">
-        <v>9.978380140801494</v>
+        <v>13.62712612754268</v>
       </c>
       <c r="E12">
-        <v>8.258763360205855</v>
+        <v>13.79070211117003</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.111355024373822</v>
+        <v>3.710294239788485</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.22408089431153</v>
+        <v>30.65992439739761</v>
       </c>
       <c r="J12">
-        <v>5.019019552718497</v>
+        <v>8.417526793291112</v>
       </c>
       <c r="K12">
-        <v>13.50507698600671</v>
+        <v>12.96162135907836</v>
       </c>
       <c r="L12">
-        <v>7.890009865615903</v>
+        <v>12.50393182899784</v>
       </c>
       <c r="M12">
-        <v>12.24765995306093</v>
+        <v>17.16185732671657</v>
       </c>
       <c r="N12">
-        <v>13.71512271532068</v>
+        <v>22.44891631250088</v>
       </c>
       <c r="O12">
-        <v>21.01951660817786</v>
+        <v>32.2345138383295</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.81174197342667</v>
+        <v>15.96115671110119</v>
       </c>
       <c r="C13">
-        <v>7.177778370850577</v>
+        <v>5.964029687784882</v>
       </c>
       <c r="D13">
-        <v>9.965523017768371</v>
+        <v>13.62627785556704</v>
       </c>
       <c r="E13">
-        <v>8.257710015434512</v>
+        <v>13.79173508159722</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.1116511899536</v>
+        <v>3.710396261902477</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.22553258527016</v>
+        <v>30.6637302861449</v>
       </c>
       <c r="J13">
-        <v>5.019436347852356</v>
+        <v>8.417695619304673</v>
       </c>
       <c r="K13">
-        <v>13.46919819341887</v>
+        <v>12.95422009616589</v>
       </c>
       <c r="L13">
-        <v>7.884442398300691</v>
+        <v>12.50417676665267</v>
       </c>
       <c r="M13">
-        <v>12.22963806331757</v>
+        <v>17.16009501760518</v>
       </c>
       <c r="N13">
-        <v>13.72772154624147</v>
+        <v>22.45226751172395</v>
       </c>
       <c r="O13">
-        <v>21.01386802873268</v>
+        <v>32.23759556076223</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.67592505316393</v>
+        <v>15.92720041809797</v>
       </c>
       <c r="C14">
-        <v>7.134065527991466</v>
+        <v>5.946892848724454</v>
       </c>
       <c r="D14">
-        <v>9.923626794331158</v>
+        <v>13.62356625849704</v>
       </c>
       <c r="E14">
-        <v>8.254361992546338</v>
+        <v>13.79513951141318</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.112619017202725</v>
+        <v>3.710730556001097</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.23063322117658</v>
+        <v>30.67625459299888</v>
       </c>
       <c r="J14">
-        <v>5.020801989260926</v>
+        <v>8.418249234349503</v>
       </c>
       <c r="K14">
-        <v>13.3515981724605</v>
+        <v>12.93010340238514</v>
       </c>
       <c r="L14">
-        <v>7.866349015282196</v>
+        <v>12.50501208968624</v>
       </c>
       <c r="M14">
-        <v>12.17081112094421</v>
+        <v>17.15440240697913</v>
       </c>
       <c r="N14">
-        <v>13.76886071106846</v>
+        <v>22.46324062548782</v>
       </c>
       <c r="O14">
-        <v>20.9958691583601</v>
+        <v>32.24777640627616</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.5923037330266</v>
+        <v>15.9064153258017</v>
       </c>
       <c r="C15">
-        <v>7.107173527757819</v>
+        <v>5.936356760622165</v>
       </c>
       <c r="D15">
-        <v>9.897990689014962</v>
+        <v>13.62194748477667</v>
       </c>
       <c r="E15">
-        <v>8.252377980535066</v>
+        <v>13.7972522564734</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.113213363651432</v>
+        <v>3.710936534022883</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.23403701902867</v>
+        <v>30.68401252083591</v>
       </c>
       <c r="J15">
-        <v>5.021643382198359</v>
+        <v>8.418590674330199</v>
       </c>
       <c r="K15">
-        <v>13.27910954250902</v>
+        <v>12.9153474139647</v>
       </c>
       <c r="L15">
-        <v>7.855315071664994</v>
+        <v>12.50555183367558</v>
       </c>
       <c r="M15">
-        <v>12.13473776491222</v>
+        <v>17.15095760403331</v>
       </c>
       <c r="N15">
-        <v>13.79409981723353</v>
+        <v>22.46999590110159</v>
       </c>
       <c r="O15">
-        <v>20.98516701889174</v>
+        <v>32.25411287854828</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.10654895741265</v>
+        <v>15.78755066979192</v>
       </c>
       <c r="C16">
-        <v>6.951286315583541</v>
+        <v>5.875384501411037</v>
       </c>
       <c r="D16">
-        <v>9.751516218608494</v>
+        <v>13.61331899763187</v>
       </c>
       <c r="E16">
-        <v>8.242022044071234</v>
+        <v>13.80978041945932</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.116643210015229</v>
+        <v>3.712135539969272</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.25774500210547</v>
+        <v>30.7297947459179</v>
       </c>
       <c r="J16">
-        <v>5.02653991124409</v>
+        <v>8.420583168734339</v>
       </c>
       <c r="K16">
-        <v>12.85670004606285</v>
+        <v>12.83105474066478</v>
       </c>
       <c r="L16">
-        <v>7.792835982789621</v>
+        <v>12.50907598289825</v>
       </c>
       <c r="M16">
-        <v>11.92744578371973</v>
+        <v>17.13186521762707</v>
       </c>
       <c r="N16">
-        <v>13.93937109901772</v>
+        <v>22.50922849876882</v>
       </c>
       <c r="O16">
-        <v>20.9287059662541</v>
+        <v>32.29196340761789</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.80274132477051</v>
+        <v>15.71488345902981</v>
       </c>
       <c r="C17">
-        <v>6.854075639783927</v>
+        <v>5.837458496178013</v>
       </c>
       <c r="D17">
-        <v>9.662079912865609</v>
+        <v>13.6086059546776</v>
       </c>
       <c r="E17">
-        <v>8.236563261261075</v>
+        <v>13.81784202188702</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.118769181792559</v>
+        <v>3.71288775109062</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.27595081251121</v>
+        <v>30.75906265043788</v>
       </c>
       <c r="J17">
-        <v>5.029610326885392</v>
+        <v>8.421837539098421</v>
       </c>
       <c r="K17">
-        <v>12.59128244102123</v>
+        <v>12.77960462484911</v>
       </c>
       <c r="L17">
-        <v>7.755182846561606</v>
+        <v>12.51162328377135</v>
       </c>
       <c r="M17">
-        <v>11.79982133955767</v>
+        <v>17.12073477692695</v>
       </c>
       <c r="N17">
-        <v>14.02907966302029</v>
+        <v>22.53376210371479</v>
       </c>
       <c r="O17">
-        <v>20.89832907881022</v>
+        <v>32.31655625138627</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.62587947151238</v>
+        <v>15.67319292239407</v>
       </c>
       <c r="C18">
-        <v>6.797586683153481</v>
+        <v>5.815456342506222</v>
       </c>
       <c r="D18">
-        <v>9.610806375490796</v>
+        <v>13.60610913951182</v>
       </c>
       <c r="E18">
-        <v>8.233748099768189</v>
+        <v>13.82261718131778</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.120000238531043</v>
+        <v>3.713326540030313</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.28773358243094</v>
+        <v>30.77633113466186</v>
       </c>
       <c r="J18">
-        <v>5.031400720915859</v>
+        <v>8.422570817656123</v>
       </c>
       <c r="K18">
-        <v>12.4363001992104</v>
+        <v>12.75011625879274</v>
       </c>
       <c r="L18">
-        <v>7.733775970441171</v>
+        <v>12.51323030018272</v>
       </c>
       <c r="M18">
-        <v>11.72626811965873</v>
+        <v>17.11454814819203</v>
       </c>
       <c r="N18">
-        <v>14.08090265912341</v>
+        <v>22.54804468441684</v>
       </c>
       <c r="O18">
-        <v>20.88238927152494</v>
+        <v>32.331205762024</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.56563478785364</v>
+        <v>15.65909661207325</v>
       </c>
       <c r="C19">
-        <v>6.778362035051531</v>
+        <v>5.807974823703026</v>
       </c>
       <c r="D19">
-        <v>9.593476141547315</v>
+        <v>13.60530058557486</v>
       </c>
       <c r="E19">
-        <v>8.232850299356526</v>
+        <v>13.82425774386133</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.120418490881658</v>
+        <v>3.713476161847161</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.29194501806759</v>
+        <v>30.78225254647249</v>
       </c>
       <c r="J19">
-        <v>5.03201109590646</v>
+        <v>8.422821121708557</v>
       </c>
       <c r="K19">
-        <v>12.38342611352823</v>
+        <v>12.74015074388486</v>
       </c>
       <c r="L19">
-        <v>7.726571119603472</v>
+        <v>12.5137987999591</v>
       </c>
       <c r="M19">
-        <v>11.70134109157089</v>
+        <v>17.11249056913593</v>
       </c>
       <c r="N19">
-        <v>14.09848846315793</v>
+        <v>22.5529100109142</v>
       </c>
       <c r="O19">
-        <v>20.87725230682537</v>
+        <v>32.33625244499964</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.83530195748051</v>
+        <v>15.72260835857545</v>
       </c>
       <c r="C20">
-        <v>6.864483596764297</v>
+        <v>5.841515334587174</v>
       </c>
       <c r="D20">
-        <v>9.671583488677731</v>
+        <v>13.60908553441562</v>
       </c>
       <c r="E20">
-        <v>8.237110673490152</v>
+        <v>13.816969536745</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.118542019005702</v>
+        <v>3.712807042105673</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.2738762934308</v>
+        <v>30.7559020769799</v>
       </c>
       <c r="J20">
-        <v>5.02928095163093</v>
+        <v>8.421702788724419</v>
       </c>
       <c r="K20">
-        <v>12.6197765511447</v>
+        <v>12.78507096767185</v>
       </c>
       <c r="L20">
-        <v>7.759165233091359</v>
+        <v>12.51133744137808</v>
       </c>
       <c r="M20">
-        <v>11.81342288443533</v>
+        <v>17.1218973785576</v>
       </c>
       <c r="N20">
-        <v>14.01950693353123</v>
+        <v>22.53113271822544</v>
       </c>
       <c r="O20">
-        <v>20.90140342212801</v>
+        <v>32.31388609893229</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.71590735236421</v>
+        <v>15.93717133384414</v>
       </c>
       <c r="C21">
-        <v>7.146929369573368</v>
+        <v>5.951934558091945</v>
       </c>
       <c r="D21">
-        <v>9.93592726748653</v>
+        <v>13.62435393924347</v>
       </c>
       <c r="E21">
-        <v>8.255331455017085</v>
+        <v>13.79413383168322</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.112334426484073</v>
+        <v>3.710632112964949</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.22907659324509</v>
+        <v>30.67255788883613</v>
       </c>
       <c r="J21">
-        <v>5.020399845936866</v>
+        <v>8.418086137753967</v>
       </c>
       <c r="K21">
-        <v>13.38623494636284</v>
+        <v>12.93718373504914</v>
       </c>
       <c r="L21">
-        <v>7.871653326076498</v>
+        <v>12.50476088381626</v>
       </c>
       <c r="M21">
-        <v>12.18809849405494</v>
+        <v>17.15606570220952</v>
       </c>
       <c r="N21">
-        <v>13.75676881692525</v>
+        <v>22.46001048772164</v>
       </c>
       <c r="O21">
-        <v>21.00108842988815</v>
+        <v>32.24476511915293</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.27224930474764</v>
+        <v>16.07806737740689</v>
       </c>
       <c r="C22">
-        <v>7.326314899865764</v>
+        <v>6.022351226453092</v>
       </c>
       <c r="D22">
-        <v>10.10991399485114</v>
+        <v>13.63622169872484</v>
       </c>
       <c r="E22">
-        <v>8.270216401819885</v>
+        <v>13.78043768909215</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.108346218901453</v>
+        <v>3.709265011608238</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.21221432205495</v>
+        <v>30.62195592120647</v>
       </c>
       <c r="J22">
-        <v>5.014814518643956</v>
+        <v>8.415827009489515</v>
       </c>
       <c r="K22">
-        <v>13.86675233143182</v>
+        <v>13.03734561814819</v>
       </c>
       <c r="L22">
-        <v>7.947358989997507</v>
+        <v>12.50172043369478</v>
       </c>
       <c r="M22">
-        <v>12.43122894632294</v>
+        <v>17.18028408148919</v>
       </c>
       <c r="N22">
-        <v>13.58687553660859</v>
+        <v>22.41504745314741</v>
       </c>
       <c r="O22">
-        <v>21.08059127567924</v>
+        <v>32.20408436205675</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.97708620909704</v>
+        <v>16.00282073120122</v>
       </c>
       <c r="C23">
-        <v>7.231053099193025</v>
+        <v>5.984931964099007</v>
       </c>
       <c r="D23">
-        <v>10.01695468749046</v>
+        <v>13.62971566203204</v>
       </c>
       <c r="E23">
-        <v>8.261995471440231</v>
+        <v>13.78763536295043</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.110468739142243</v>
+        <v>3.709989702031936</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.22004128396057</v>
+        <v>30.64860918205417</v>
       </c>
       <c r="J23">
-        <v>5.017775369770494</v>
+        <v>8.41702320521642</v>
       </c>
       <c r="K23">
-        <v>13.61214537053394</v>
+        <v>12.98382775935267</v>
       </c>
       <c r="L23">
-        <v>7.906755165560623</v>
+        <v>12.50322838363559</v>
       </c>
       <c r="M23">
-        <v>12.30164461099359</v>
+        <v>17.16718707169763</v>
       </c>
       <c r="N23">
-        <v>13.67739324594596</v>
+        <v>22.4389064128229</v>
       </c>
       <c r="O23">
-        <v>21.03681155088976</v>
+        <v>32.22538516002868</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.82058814033465</v>
+        <v>15.71911565800577</v>
       </c>
       <c r="C24">
-        <v>6.859780031142345</v>
+        <v>5.839681853823557</v>
       </c>
       <c r="D24">
-        <v>9.667286468600453</v>
+        <v>13.60886805347299</v>
       </c>
       <c r="E24">
-        <v>8.23686218278675</v>
+        <v>13.81736354979787</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.118644691817801</v>
+        <v>3.71284351090779</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.27481009254995</v>
+        <v>30.75732959550305</v>
       </c>
       <c r="J24">
-        <v>5.029429783801029</v>
+        <v>8.421763671598184</v>
       </c>
       <c r="K24">
-        <v>12.60690181150462</v>
+        <v>12.78259934861728</v>
       </c>
       <c r="L24">
-        <v>7.757364046863938</v>
+        <v>12.51146622666954</v>
       </c>
       <c r="M24">
-        <v>11.80727418238103</v>
+        <v>17.12137110439836</v>
       </c>
       <c r="N24">
-        <v>14.02383398900117</v>
+        <v>22.53232090920515</v>
       </c>
       <c r="O24">
-        <v>20.90000877162951</v>
+        <v>32.31509168389536</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.49243857665512</v>
+        <v>15.41729886372145</v>
       </c>
       <c r="C25">
-        <v>6.437375313238181</v>
+        <v>5.6758631818629</v>
       </c>
       <c r="D25">
-        <v>9.296714471484879</v>
+        <v>13.5945697838126</v>
       </c>
       <c r="E25">
-        <v>8.222110599469085</v>
+        <v>13.85472123578893</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.127781791455439</v>
+        <v>3.716156629601233</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.38361668120789</v>
+        <v>30.89120836745411</v>
       </c>
       <c r="J25">
-        <v>5.042932092123737</v>
+        <v>8.427328401456196</v>
       </c>
       <c r="K25">
-        <v>11.43370917430191</v>
+        <v>12.56963871574635</v>
       </c>
       <c r="L25">
-        <v>7.605808457619514</v>
+        <v>12.5257790968221</v>
       </c>
       <c r="M25">
-        <v>11.26871340283459</v>
+        <v>17.0801977791175</v>
       </c>
       <c r="N25">
-        <v>14.40622525452585</v>
+        <v>22.63964531285466</v>
       </c>
       <c r="O25">
-        <v>20.81059760810802</v>
+        <v>32.43113486040937</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_167/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.20011764684948</v>
+        <v>13.44782238015792</v>
       </c>
       <c r="C2">
-        <v>5.549510265386702</v>
+        <v>6.108169162753165</v>
       </c>
       <c r="D2">
-        <v>13.59115401781157</v>
+        <v>9.031073855974684</v>
       </c>
       <c r="E2">
-        <v>13.88680011581545</v>
+        <v>8.221405556246067</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.7188001584187</v>
+        <v>2.134807486810427</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.0040753684009</v>
+        <v>19.50271916556308</v>
       </c>
       <c r="J2">
-        <v>8.431817319517179</v>
+        <v>5.053668635923477</v>
       </c>
       <c r="K2">
-        <v>12.41729235547219</v>
+        <v>10.49202603386483</v>
       </c>
       <c r="L2">
-        <v>12.54101177934104</v>
+        <v>7.502628045816959</v>
       </c>
       <c r="M2">
-        <v>17.05710824708649</v>
+        <v>10.87023845032308</v>
       </c>
       <c r="N2">
-        <v>22.72436872851446</v>
+        <v>14.69623025540997</v>
       </c>
       <c r="O2">
-        <v>32.53314787328899</v>
+        <v>20.79088129058198</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.05679776130088</v>
+        <v>12.70041062914958</v>
       </c>
       <c r="C3">
-        <v>5.460530465355505</v>
+        <v>5.874223607780828</v>
       </c>
       <c r="D3">
-        <v>13.59330448255508</v>
+        <v>8.856364387141642</v>
       </c>
       <c r="E3">
-        <v>13.9114036168101</v>
+        <v>8.227025863309526</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.720720094090111</v>
+        <v>2.139766254040216</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.08948710429331</v>
+        <v>19.60595773762013</v>
       </c>
       <c r="J3">
-        <v>8.435105540830625</v>
+        <v>5.061438790521447</v>
       </c>
       <c r="K3">
-        <v>12.31728889375758</v>
+        <v>9.903289573205756</v>
       </c>
       <c r="L3">
-        <v>12.55427568381321</v>
+        <v>7.438014831170685</v>
       </c>
       <c r="M3">
-        <v>17.04602917981959</v>
+        <v>10.60049347472749</v>
       </c>
       <c r="N3">
-        <v>22.78537168138178</v>
+        <v>14.89849535710547</v>
       </c>
       <c r="O3">
-        <v>32.61261227130181</v>
+        <v>20.8043150257997</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.97094253569502</v>
+        <v>12.22304700851468</v>
       </c>
       <c r="C4">
-        <v>5.40432690750312</v>
+        <v>5.725461006096602</v>
       </c>
       <c r="D4">
-        <v>13.5968356271749</v>
+        <v>8.751993646930737</v>
       </c>
       <c r="E4">
-        <v>13.92792625868897</v>
+        <v>8.23340590274462</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.721962626316204</v>
+        <v>2.142911868714005</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.14633199124787</v>
+        <v>19.67988714294621</v>
       </c>
       <c r="J4">
-        <v>8.437246457370213</v>
+        <v>5.066452902690111</v>
       </c>
       <c r="K4">
-        <v>12.25763757101857</v>
+        <v>9.544118572686818</v>
       </c>
       <c r="L4">
-        <v>12.56387412749271</v>
+        <v>7.400978921291097</v>
       </c>
       <c r="M4">
-        <v>17.04149912648062</v>
+        <v>10.43557264563777</v>
       </c>
       <c r="N4">
-        <v>22.82460548094216</v>
+        <v>15.0256521384929</v>
       </c>
       <c r="O4">
-        <v>32.66649561385207</v>
+        <v>20.82512492134197</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.93653029067612</v>
+        <v>12.02407111581374</v>
       </c>
       <c r="C5">
-        <v>5.38104202536075</v>
+        <v>5.663593149574436</v>
       </c>
       <c r="D5">
-        <v>13.59883169017946</v>
+        <v>8.710233267071199</v>
       </c>
       <c r="E5">
-        <v>13.93501596980867</v>
+        <v>8.236730776623476</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.722485031669145</v>
+        <v>2.144219601353091</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.17060377681535</v>
+        <v>19.7125830265127</v>
       </c>
       <c r="J5">
-        <v>8.438149641115801</v>
+        <v>5.06855729657759</v>
       </c>
       <c r="K5">
-        <v>12.23379208598873</v>
+        <v>9.394576493742701</v>
       </c>
       <c r="L5">
-        <v>12.56815187669031</v>
+        <v>7.386551433958591</v>
       </c>
       <c r="M5">
-        <v>17.04022735863803</v>
+        <v>10.36863083232884</v>
       </c>
       <c r="N5">
-        <v>22.84104186825291</v>
+        <v>15.07823469208233</v>
       </c>
       <c r="O5">
-        <v>32.68973341852733</v>
+        <v>20.83666689695345</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.93085187307594</v>
+        <v>11.99076920728148</v>
       </c>
       <c r="C6">
-        <v>5.377152944352733</v>
+        <v>5.653246124225779</v>
       </c>
       <c r="D6">
-        <v>13.59919681258123</v>
+        <v>8.703346783927278</v>
       </c>
       <c r="E6">
-        <v>13.93621476435192</v>
+        <v>8.237326315107774</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.722572748326614</v>
+        <v>2.144438325891233</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.1747009555503</v>
+        <v>19.71816499270414</v>
       </c>
       <c r="J6">
-        <v>8.438301473275221</v>
+        <v>5.068910418861451</v>
       </c>
       <c r="K6">
-        <v>12.22986116383554</v>
+        <v>9.369558425182689</v>
       </c>
       <c r="L6">
-        <v>12.56888433428636</v>
+        <v>7.384195955628154</v>
       </c>
       <c r="M6">
-        <v>17.04005094452068</v>
+        <v>10.35753380344781</v>
       </c>
       <c r="N6">
-        <v>22.84379823111426</v>
+        <v>15.08701275400747</v>
       </c>
       <c r="O6">
-        <v>32.69366932582376</v>
+        <v>20.83876552932213</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.97047606819171</v>
+        <v>12.2203812685978</v>
       </c>
       <c r="C7">
-        <v>5.40401440618691</v>
+        <v>5.724631619805897</v>
       </c>
       <c r="D7">
-        <v>13.59686028971021</v>
+        <v>8.751427273519525</v>
       </c>
       <c r="E7">
-        <v>13.9280204284386</v>
+        <v>8.233447823173124</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.721969606551315</v>
+        <v>2.14292939986961</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.14665484647834</v>
+        <v>19.68031779449164</v>
       </c>
       <c r="J7">
-        <v>8.43725851343652</v>
+        <v>5.066481035933141</v>
       </c>
       <c r="K7">
-        <v>12.25731407893952</v>
+        <v>9.542114430882677</v>
       </c>
       <c r="L7">
-        <v>12.56393033479665</v>
+        <v>7.400781653100085</v>
       </c>
       <c r="M7">
-        <v>17.04147964624728</v>
+        <v>10.43466865491486</v>
       </c>
       <c r="N7">
-        <v>22.82482533100001</v>
+        <v>15.02635816190233</v>
       </c>
       <c r="O7">
-        <v>32.666803825434</v>
+        <v>20.82526831123673</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.15027754649878</v>
+        <v>13.19404785482866</v>
       </c>
       <c r="C8">
-        <v>5.519163561636234</v>
+        <v>6.028590031586887</v>
       </c>
       <c r="D8">
-        <v>13.5914374218917</v>
+        <v>8.970257308538674</v>
       </c>
       <c r="E8">
-        <v>13.89498983861921</v>
+        <v>8.222728517398121</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.719448964488588</v>
+        <v>2.13649662941944</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.03261186785434</v>
+        <v>19.5360782298998</v>
       </c>
       <c r="J8">
-        <v>8.432925839442277</v>
+        <v>5.056297269607776</v>
       </c>
       <c r="K8">
-        <v>12.3824614640812</v>
+        <v>10.27525048889974</v>
       </c>
       <c r="L8">
-        <v>12.54528369140397</v>
+        <v>7.47980356316712</v>
       </c>
       <c r="M8">
-        <v>17.05281827475467</v>
+        <v>10.77713609948504</v>
       </c>
       <c r="N8">
-        <v>22.74503434368988</v>
+        <v>14.76536783952412</v>
       </c>
       <c r="O8">
-        <v>32.55949010289918</v>
+        <v>20.79284770153648</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.51827872163138</v>
+        <v>14.95041268624419</v>
       </c>
       <c r="C9">
-        <v>5.731965249203537</v>
+        <v>6.582543561012283</v>
       </c>
       <c r="D9">
-        <v>13.59828569016984</v>
+        <v>9.420528957168624</v>
       </c>
       <c r="E9">
-        <v>13.84142840134471</v>
+        <v>8.225470423113155</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.715009038743737</v>
+        <v>2.124659221954362</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.84389154014965</v>
+        <v>19.34066178279907</v>
       </c>
       <c r="J9">
-        <v>8.425393306769394</v>
+        <v>5.038260015251608</v>
       </c>
       <c r="K9">
-        <v>12.64074509365187</v>
+        <v>11.84090556137688</v>
       </c>
       <c r="L9">
-        <v>12.52023031701288</v>
+        <v>7.655564317230011</v>
       </c>
       <c r="M9">
-        <v>17.09295318768033</v>
+        <v>11.4506173612178</v>
       </c>
       <c r="N9">
-        <v>22.60261115565569</v>
+        <v>14.27616582831751</v>
       </c>
       <c r="O9">
-        <v>32.38947053248998</v>
+        <v>20.83329050529386</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.79585588989691</v>
+        <v>16.14092703187941</v>
       </c>
       <c r="C10">
-        <v>5.879686373723009</v>
+        <v>6.962300358269875</v>
       </c>
       <c r="D10">
-        <v>13.6138857323613</v>
+        <v>9.761743307659106</v>
       </c>
       <c r="E10">
-        <v>13.808879267801</v>
+        <v>8.242689204508338</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.712050537971932</v>
+        <v>2.116401724780103</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.7265139328924</v>
+        <v>19.25584775137244</v>
       </c>
       <c r="J10">
-        <v>8.42044163329844</v>
+        <v>5.026192864004502</v>
       </c>
       <c r="K10">
-        <v>12.83693908008828</v>
+        <v>12.88667239611937</v>
       </c>
       <c r="L10">
-        <v>12.50880452407565</v>
+        <v>7.797166237082615</v>
       </c>
       <c r="M10">
-        <v>17.13316435406264</v>
+        <v>11.94198714439953</v>
       </c>
       <c r="N10">
-        <v>22.50645225603417</v>
+        <v>13.92916461123438</v>
       </c>
       <c r="O10">
-        <v>32.28922554491638</v>
+        <v>20.93238221662646</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.92322481009515</v>
+        <v>16.65995955261074</v>
       </c>
       <c r="C11">
-        <v>5.944880349557207</v>
+        <v>7.12892986605612</v>
       </c>
       <c r="D11">
-        <v>13.62325419728311</v>
+        <v>9.918722788463123</v>
       </c>
       <c r="E11">
-        <v>13.79554190542301</v>
+        <v>8.253978637451379</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.710769873314645</v>
+        <v>2.112732583583431</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.67773301989374</v>
+        <v>19.23126762110892</v>
       </c>
       <c r="J11">
-        <v>8.418314389595043</v>
+        <v>5.020962599013877</v>
       </c>
       <c r="K11">
-        <v>12.92728062937042</v>
+        <v>13.33776315302245</v>
       </c>
       <c r="L11">
-        <v>12.50511363892453</v>
+        <v>7.864236090814349</v>
       </c>
       <c r="M11">
-        <v>17.15374115617447</v>
+        <v>12.16391513610844</v>
       </c>
       <c r="N11">
-        <v>22.46453042794039</v>
+        <v>13.7736848004303</v>
       </c>
       <c r="O11">
-        <v>32.24898217819283</v>
+        <v>20.99380350598108</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.97157420888083</v>
+        <v>16.85321640186327</v>
       </c>
       <c r="C12">
-        <v>5.969268675728989</v>
+        <v>7.191135612048591</v>
       </c>
       <c r="D12">
-        <v>13.62712612754268</v>
+        <v>9.978380140801441</v>
       </c>
       <c r="E12">
-        <v>13.79070211117003</v>
+        <v>8.258763360205799</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.710294239788485</v>
+        <v>2.111355024373685</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.65992439739761</v>
+        <v>19.22408089431152</v>
       </c>
       <c r="J12">
-        <v>8.417526793291112</v>
+        <v>5.019019552718497</v>
       </c>
       <c r="K12">
-        <v>12.96162135907836</v>
+        <v>13.50507698600667</v>
       </c>
       <c r="L12">
-        <v>12.50393182899784</v>
+        <v>7.890009865615902</v>
       </c>
       <c r="M12">
-        <v>17.16185732671657</v>
+        <v>12.24765995306093</v>
       </c>
       <c r="N12">
-        <v>22.44891631250088</v>
+        <v>13.71512271532068</v>
       </c>
       <c r="O12">
-        <v>32.2345138383295</v>
+        <v>21.01951660817786</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.96115671110119</v>
+        <v>16.81174197342668</v>
       </c>
       <c r="C13">
-        <v>5.964029687784882</v>
+        <v>7.177778370850659</v>
       </c>
       <c r="D13">
-        <v>13.62627785556704</v>
+        <v>9.965523017768371</v>
       </c>
       <c r="E13">
-        <v>13.79173508159722</v>
+        <v>8.257710015434514</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.710396261902477</v>
+        <v>2.111651189953868</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.6637302861449</v>
+        <v>19.22553258527017</v>
       </c>
       <c r="J13">
-        <v>8.417695619304673</v>
+        <v>5.019436347852356</v>
       </c>
       <c r="K13">
-        <v>12.95422009616589</v>
+        <v>13.46919819341891</v>
       </c>
       <c r="L13">
-        <v>12.50417676665267</v>
+        <v>7.884442398300666</v>
       </c>
       <c r="M13">
-        <v>17.16009501760518</v>
+        <v>12.22963806331754</v>
       </c>
       <c r="N13">
-        <v>22.45226751172395</v>
+        <v>13.72772154624151</v>
       </c>
       <c r="O13">
-        <v>32.23759556076223</v>
+        <v>21.01386802873268</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.92720041809797</v>
+        <v>16.67592505316394</v>
       </c>
       <c r="C14">
-        <v>5.946892848724454</v>
+        <v>7.134065527991555</v>
       </c>
       <c r="D14">
-        <v>13.62356625849704</v>
+        <v>9.92362679433112</v>
       </c>
       <c r="E14">
-        <v>13.79513951141318</v>
+        <v>8.254361992546187</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.710730556001097</v>
+        <v>2.112619017202992</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.67625459299888</v>
+        <v>19.23063322117665</v>
       </c>
       <c r="J14">
-        <v>8.418249234349503</v>
+        <v>5.020801989260789</v>
       </c>
       <c r="K14">
-        <v>12.93010340238514</v>
+        <v>13.3515981724605</v>
       </c>
       <c r="L14">
-        <v>12.50501208968624</v>
+        <v>7.866349015282031</v>
       </c>
       <c r="M14">
-        <v>17.15440240697913</v>
+        <v>12.17081112094417</v>
       </c>
       <c r="N14">
-        <v>22.46324062548782</v>
+        <v>13.76886071106846</v>
       </c>
       <c r="O14">
-        <v>32.24777640627616</v>
+        <v>20.99586915836012</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.9064153258017</v>
+        <v>16.59230373302658</v>
       </c>
       <c r="C15">
-        <v>5.936356760622165</v>
+        <v>7.107173527757737</v>
       </c>
       <c r="D15">
-        <v>13.62194748477667</v>
+        <v>9.897990689014993</v>
       </c>
       <c r="E15">
-        <v>13.7972522564734</v>
+        <v>8.252377980535117</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.710936534022883</v>
+        <v>2.113213363651299</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.68401252083591</v>
+        <v>19.23403701902869</v>
       </c>
       <c r="J15">
-        <v>8.418590674330199</v>
+        <v>5.021643382198428</v>
       </c>
       <c r="K15">
-        <v>12.9153474139647</v>
+        <v>13.279109542509</v>
       </c>
       <c r="L15">
-        <v>12.50555183367558</v>
+        <v>7.855315071665056</v>
       </c>
       <c r="M15">
-        <v>17.15095760403331</v>
+        <v>12.13473776491224</v>
       </c>
       <c r="N15">
-        <v>22.46999590110159</v>
+        <v>13.7940998172336</v>
       </c>
       <c r="O15">
-        <v>32.25411287854828</v>
+        <v>20.98516701889181</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.78755066979192</v>
+        <v>16.10654895741265</v>
       </c>
       <c r="C16">
-        <v>5.875384501411037</v>
+        <v>6.951286315583524</v>
       </c>
       <c r="D16">
-        <v>13.61331899763187</v>
+        <v>9.751516218608543</v>
       </c>
       <c r="E16">
-        <v>13.80978041945932</v>
+        <v>8.242022044071289</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.712135539969272</v>
+        <v>2.116643210015229</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.7297947459179</v>
+        <v>19.25774500210543</v>
       </c>
       <c r="J16">
-        <v>8.420583168734339</v>
+        <v>5.026539911244122</v>
       </c>
       <c r="K16">
-        <v>12.83105474066478</v>
+        <v>12.85670004606287</v>
       </c>
       <c r="L16">
-        <v>12.50907598289825</v>
+        <v>7.792835982789664</v>
       </c>
       <c r="M16">
-        <v>17.13186521762707</v>
+        <v>11.92744578371973</v>
       </c>
       <c r="N16">
-        <v>22.50922849876882</v>
+        <v>13.93937109901772</v>
       </c>
       <c r="O16">
-        <v>32.29196340761789</v>
+        <v>20.92870596625409</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.71488345902981</v>
+        <v>15.80274132477051</v>
       </c>
       <c r="C17">
-        <v>5.837458496178013</v>
+        <v>6.854075639784125</v>
       </c>
       <c r="D17">
-        <v>13.6086059546776</v>
+        <v>9.662079912865671</v>
       </c>
       <c r="E17">
-        <v>13.81784202188702</v>
+        <v>8.236563261261075</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.71288775109062</v>
+        <v>2.118769181793227</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.75906265043788</v>
+        <v>19.2759508125112</v>
       </c>
       <c r="J17">
-        <v>8.421837539098421</v>
+        <v>5.029610326885324</v>
       </c>
       <c r="K17">
-        <v>12.77960462484911</v>
+        <v>12.59128244102128</v>
       </c>
       <c r="L17">
-        <v>12.51162328377135</v>
+        <v>7.755182846561497</v>
       </c>
       <c r="M17">
-        <v>17.12073477692695</v>
+        <v>11.79982133955764</v>
       </c>
       <c r="N17">
-        <v>22.53376210371479</v>
+        <v>14.02907966302025</v>
       </c>
       <c r="O17">
-        <v>32.31655625138627</v>
+        <v>20.89832907881013</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.67319292239407</v>
+        <v>15.62587947151238</v>
       </c>
       <c r="C18">
-        <v>5.815456342506222</v>
+        <v>6.797586683153202</v>
       </c>
       <c r="D18">
-        <v>13.60610913951182</v>
+        <v>9.610806375490762</v>
       </c>
       <c r="E18">
-        <v>13.82261718131778</v>
+        <v>8.233748099768027</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.713326540030313</v>
+        <v>2.120000238531042</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.77633113466186</v>
+        <v>19.28773358243077</v>
       </c>
       <c r="J18">
-        <v>8.422570817656123</v>
+        <v>5.03140072091576</v>
       </c>
       <c r="K18">
-        <v>12.75011625879274</v>
+        <v>12.43630019921045</v>
       </c>
       <c r="L18">
-        <v>12.51323030018272</v>
+        <v>7.73377597044112</v>
       </c>
       <c r="M18">
-        <v>17.11454814819203</v>
+        <v>11.72626811965869</v>
       </c>
       <c r="N18">
-        <v>22.54804468441684</v>
+        <v>14.08090265912328</v>
       </c>
       <c r="O18">
-        <v>32.331205762024</v>
+        <v>20.88238927152485</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.65909661207325</v>
+        <v>15.56563478785366</v>
       </c>
       <c r="C19">
-        <v>5.807974823703026</v>
+        <v>6.778362035051726</v>
       </c>
       <c r="D19">
-        <v>13.60530058557486</v>
+        <v>9.593476141547248</v>
       </c>
       <c r="E19">
-        <v>13.82425774386133</v>
+        <v>8.232850299356636</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.713476161847161</v>
+        <v>2.120418490881524</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.78225254647249</v>
+        <v>19.29194501806769</v>
       </c>
       <c r="J19">
-        <v>8.422821121708557</v>
+        <v>5.032011095906495</v>
       </c>
       <c r="K19">
-        <v>12.74015074388486</v>
+        <v>12.38342611352824</v>
       </c>
       <c r="L19">
-        <v>12.5137987999591</v>
+        <v>7.726571119603465</v>
       </c>
       <c r="M19">
-        <v>17.11249056913593</v>
+        <v>11.70134109157092</v>
       </c>
       <c r="N19">
-        <v>22.5529100109142</v>
+        <v>14.098488463158</v>
       </c>
       <c r="O19">
-        <v>32.33625244499964</v>
+        <v>20.87725230682543</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.72260835857545</v>
+        <v>15.83530195748054</v>
       </c>
       <c r="C20">
-        <v>5.841515334587174</v>
+        <v>6.864483596764067</v>
       </c>
       <c r="D20">
-        <v>13.60908553441562</v>
+        <v>9.671583488677642</v>
       </c>
       <c r="E20">
-        <v>13.816969536745</v>
+        <v>8.237110673490095</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.712807042105673</v>
+        <v>2.118542019005435</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.7559020769799</v>
+        <v>19.27387629343087</v>
       </c>
       <c r="J20">
-        <v>8.421702788724419</v>
+        <v>5.02928095163093</v>
       </c>
       <c r="K20">
-        <v>12.78507096767185</v>
+        <v>12.61977655114465</v>
       </c>
       <c r="L20">
-        <v>12.51133744137808</v>
+        <v>7.759165233091363</v>
       </c>
       <c r="M20">
-        <v>17.1218973785576</v>
+        <v>11.81342288443535</v>
       </c>
       <c r="N20">
-        <v>22.53113271822544</v>
+        <v>14.01950693353126</v>
       </c>
       <c r="O20">
-        <v>32.31388609893229</v>
+        <v>20.90140342212813</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.93717133384414</v>
+        <v>16.71590735236421</v>
       </c>
       <c r="C21">
-        <v>5.951934558091945</v>
+        <v>7.146929369573228</v>
       </c>
       <c r="D21">
-        <v>13.62435393924347</v>
+        <v>9.935927267486425</v>
       </c>
       <c r="E21">
-        <v>13.79413383168322</v>
+        <v>8.255331455017041</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.710632112964949</v>
+        <v>2.112334426483806</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.67255788883613</v>
+        <v>19.22907659324481</v>
       </c>
       <c r="J21">
-        <v>8.418086137753967</v>
+        <v>5.020399845936899</v>
       </c>
       <c r="K21">
-        <v>12.93718373504914</v>
+        <v>13.38623494636294</v>
       </c>
       <c r="L21">
-        <v>12.50476088381626</v>
+        <v>7.871653326076501</v>
       </c>
       <c r="M21">
-        <v>17.15606570220952</v>
+        <v>12.18809849405487</v>
       </c>
       <c r="N21">
-        <v>22.46001048772164</v>
+        <v>13.75676881692509</v>
       </c>
       <c r="O21">
-        <v>32.24476511915293</v>
+        <v>21.0010884298879</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.07806737740689</v>
+        <v>17.27224930474762</v>
       </c>
       <c r="C22">
-        <v>6.022351226453092</v>
+        <v>7.326314899865649</v>
       </c>
       <c r="D22">
-        <v>13.63622169872484</v>
+        <v>10.10991399485115</v>
       </c>
       <c r="E22">
-        <v>13.78043768909215</v>
+        <v>8.270216401819788</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.709265011608238</v>
+        <v>2.108346218901318</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.62195592120647</v>
+        <v>19.21221432205483</v>
       </c>
       <c r="J22">
-        <v>8.415827009489515</v>
+        <v>5.014814518643854</v>
       </c>
       <c r="K22">
-        <v>13.03734561814819</v>
+        <v>13.86675233143182</v>
       </c>
       <c r="L22">
-        <v>12.50172043369478</v>
+        <v>7.947358989997465</v>
       </c>
       <c r="M22">
-        <v>17.18028408148919</v>
+        <v>12.43122894632291</v>
       </c>
       <c r="N22">
-        <v>22.41504745314741</v>
+        <v>13.5868755366085</v>
       </c>
       <c r="O22">
-        <v>32.20408436205675</v>
+        <v>21.08059127567916</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.00282073120122</v>
+        <v>16.97708620909703</v>
       </c>
       <c r="C23">
-        <v>5.984931964099007</v>
+        <v>7.231053099192715</v>
       </c>
       <c r="D23">
-        <v>13.62971566203204</v>
+        <v>10.01695468749041</v>
       </c>
       <c r="E23">
-        <v>13.78763536295043</v>
+        <v>8.261995471440176</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.709989702031936</v>
+        <v>2.110468739141977</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.64860918205417</v>
+        <v>19.22004128396061</v>
       </c>
       <c r="J23">
-        <v>8.41702320521642</v>
+        <v>5.017775369770496</v>
       </c>
       <c r="K23">
-        <v>12.98382775935267</v>
+        <v>13.61214537053388</v>
       </c>
       <c r="L23">
-        <v>12.50322838363559</v>
+        <v>7.906755165560662</v>
       </c>
       <c r="M23">
-        <v>17.16718707169763</v>
+        <v>12.30164461099359</v>
       </c>
       <c r="N23">
-        <v>22.4389064128229</v>
+        <v>13.67739324594599</v>
       </c>
       <c r="O23">
-        <v>32.22538516002868</v>
+        <v>21.03681155088985</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.71911565800577</v>
+        <v>15.82058814033465</v>
       </c>
       <c r="C24">
-        <v>5.839681853823557</v>
+        <v>6.859780031142623</v>
       </c>
       <c r="D24">
-        <v>13.60886805347299</v>
+        <v>9.667286468600418</v>
       </c>
       <c r="E24">
-        <v>13.81736354979787</v>
+        <v>8.236862182786856</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.71284351090779</v>
+        <v>2.118644691818203</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.75732959550305</v>
+        <v>19.27481009254992</v>
       </c>
       <c r="J24">
-        <v>8.421763671598184</v>
+        <v>5.029429783801162</v>
       </c>
       <c r="K24">
-        <v>12.78259934861728</v>
+        <v>12.60690181150468</v>
       </c>
       <c r="L24">
-        <v>12.51146622666954</v>
+        <v>7.75736404686389</v>
       </c>
       <c r="M24">
-        <v>17.12137110439836</v>
+        <v>11.80727418238101</v>
       </c>
       <c r="N24">
-        <v>22.53232090920515</v>
+        <v>14.02383398900113</v>
       </c>
       <c r="O24">
-        <v>32.31509168389536</v>
+        <v>20.90000877162939</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.41729886372145</v>
+        <v>14.49243857665512</v>
       </c>
       <c r="C25">
-        <v>5.6758631818629</v>
+        <v>6.437375313238379</v>
       </c>
       <c r="D25">
-        <v>13.5945697838126</v>
+        <v>9.296714471485004</v>
       </c>
       <c r="E25">
-        <v>13.85472123578893</v>
+        <v>8.222110599469088</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.716156629601233</v>
+        <v>2.127781791455435</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.89120836745411</v>
+        <v>19.38361668120789</v>
       </c>
       <c r="J25">
-        <v>8.427328401456196</v>
+        <v>5.042932092123702</v>
       </c>
       <c r="K25">
-        <v>12.56963871574635</v>
+        <v>11.43370917430191</v>
       </c>
       <c r="L25">
-        <v>12.5257790968221</v>
+        <v>7.605808457619465</v>
       </c>
       <c r="M25">
-        <v>17.0801977791175</v>
+        <v>11.26871340283459</v>
       </c>
       <c r="N25">
-        <v>22.63964531285466</v>
+        <v>14.40622525452581</v>
       </c>
       <c r="O25">
-        <v>32.43113486040937</v>
+        <v>20.81059760810795</v>
       </c>
     </row>
   </sheetData>
